--- a/examples/generate_echo_setup_file/Inputs/example_3.xlsx
+++ b/examples/generate_echo_setup_file/Inputs/example_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer internship 2021\echo project\examples for GitHub\Outputs\example_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7406CE16-64D9-4093-840A-76FBEBD57159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F15342-0125-49FE-ABD5-A471246AB567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1385,7 +1385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1411,6 +1411,7 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3891,39 +3892,39 @@
       <c r="B58" s="14">
         <v>0.35</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="21">
         <v>0.25</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="21">
         <v>0.15</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="21">
         <v>0.1</v>
       </c>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15">
+      <c r="F58" s="21"/>
+      <c r="G58" s="21">
         <v>0.35</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H58" s="21">
         <v>0.25</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I58" s="21">
         <v>0.15</v>
       </c>
-      <c r="J58" s="15">
+      <c r="J58" s="21">
         <v>0.1</v>
       </c>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15">
+      <c r="K58" s="21"/>
+      <c r="L58" s="21">
         <v>0.35</v>
       </c>
-      <c r="M58" s="15">
+      <c r="M58" s="21">
         <v>0.25</v>
       </c>
-      <c r="N58" s="15">
+      <c r="N58" s="21">
         <v>0.15</v>
       </c>
-      <c r="O58" s="15">
+      <c r="O58" s="21">
         <v>0.1</v>
       </c>
       <c r="P58" s="15"/>
@@ -3944,39 +3945,39 @@
       <c r="B59" s="14">
         <v>0.32500000000000001</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="21">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="21">
         <v>0.125</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="21">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15">
+      <c r="F59" s="21"/>
+      <c r="G59" s="21">
         <v>0.32500000000000001</v>
       </c>
-      <c r="H59" s="15">
+      <c r="H59" s="21">
         <v>0.22500000000000001</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I59" s="21">
         <v>0.125</v>
       </c>
-      <c r="J59" s="15">
+      <c r="J59" s="21">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15">
+      <c r="K59" s="21"/>
+      <c r="L59" s="21">
         <v>0.32500000000000001</v>
       </c>
-      <c r="M59" s="15">
+      <c r="M59" s="21">
         <v>0.22500000000000001</v>
       </c>
-      <c r="N59" s="15">
+      <c r="N59" s="21">
         <v>0.125</v>
       </c>
-      <c r="O59" s="15">
+      <c r="O59" s="21">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="P59" s="15"/>
@@ -3997,39 +3998,39 @@
       <c r="B60" s="14">
         <v>0.3</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="21">
         <v>0.2</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="21">
         <v>0.1</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="21">
         <v>0.05</v>
       </c>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15">
+      <c r="F60" s="21"/>
+      <c r="G60" s="21">
         <v>0.3</v>
       </c>
-      <c r="H60" s="15">
+      <c r="H60" s="21">
         <v>0.2</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I60" s="21">
         <v>0.1</v>
       </c>
-      <c r="J60" s="15">
+      <c r="J60" s="21">
         <v>0.05</v>
       </c>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15">
+      <c r="K60" s="21"/>
+      <c r="L60" s="21">
         <v>0.3</v>
       </c>
-      <c r="M60" s="15">
+      <c r="M60" s="21">
         <v>0.2</v>
       </c>
-      <c r="N60" s="15">
+      <c r="N60" s="21">
         <v>0.1</v>
       </c>
-      <c r="O60" s="15">
+      <c r="O60" s="21">
         <v>0.05</v>
       </c>
       <c r="P60" s="15"/>
@@ -4050,40 +4051,40 @@
       <c r="B61" s="14">
         <v>0.25</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="21">
         <v>0.15</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="21">
         <v>0.05</v>
       </c>
-      <c r="E61" s="15">
-        <v>-1E-3</v>
-      </c>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15">
+      <c r="E61" s="21">
+        <v>0</v>
+      </c>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21">
         <v>0.25</v>
       </c>
-      <c r="H61" s="15">
+      <c r="H61" s="21">
         <v>0.15</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I61" s="21">
         <v>0.05</v>
       </c>
-      <c r="J61" s="15">
-        <v>-1E-3</v>
-      </c>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15">
+      <c r="J61" s="21">
+        <v>0</v>
+      </c>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21">
         <v>0.25</v>
       </c>
-      <c r="M61" s="15">
+      <c r="M61" s="21">
         <v>0.15</v>
       </c>
-      <c r="N61" s="15">
+      <c r="N61" s="21">
         <v>0.05</v>
       </c>
-      <c r="O61" s="15">
-        <v>-1E-3</v>
+      <c r="O61" s="21">
+        <v>0</v>
       </c>
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
@@ -4129,7 +4130,7 @@
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B63" s="14"/>
+      <c r="B63" s="15"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
@@ -4158,7 +4159,7 @@
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="14"/>
+      <c r="B64" s="15"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
@@ -4187,7 +4188,7 @@
       <c r="A65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="14"/>
+      <c r="B65" s="15"/>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
@@ -4216,7 +4217,7 @@
       <c r="A66" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="14"/>
+      <c r="B66" s="15"/>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
